--- a/Contest Marks.xlsx
+++ b/Contest Marks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>sno</t>
   </si>
@@ -36,12 +36,6 @@
     <t>progam1</t>
   </si>
   <si>
-    <t>program2</t>
-  </si>
-  <si>
-    <t>TotalMarks</t>
-  </si>
-  <si>
     <t>VITS</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>D.Mounika</t>
   </si>
   <si>
-    <t>Jits</t>
-  </si>
-  <si>
     <t>R.Santosh</t>
   </si>
   <si>
@@ -145,13 +136,25 @@
   </si>
   <si>
     <t>G.AnilKUmar</t>
+  </si>
+  <si>
+    <t>Bubble sort 
+program</t>
+  </si>
+  <si>
+    <t>Palidrome 
+Program</t>
+  </si>
+  <si>
+    <t>Total
+Marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,18 +179,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +332,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,894 +508,992 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="B1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
         <v>47</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
+        <f>I2*5</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1">
+        <v>107</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <f>E2*5</f>
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
         <v>43</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="1">
+        <f>I3*5</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>83</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <f>E3*5</f>
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
         <v>47</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
+        <f>I4*5</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>E4+F4</f>
+        <v>67</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="F4">
-        <f>E4*5</f>
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>D4+F4</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1">
+        <f>I5*5</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>E5+F5</f>
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>E6+F6</f>
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>E7+F7</f>
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f>E5*5</f>
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>D5+F5</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f>E6*5</f>
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>D6+F6</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
+      <c r="E8" s="1">
         <v>45</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>E7*5</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>D7+F7</f>
+      <c r="F8" s="1">
+        <f>I8*5</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>E8+F8</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>E8*5</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>D8+F8</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>41</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>E9*5</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>D9+F9</f>
+      <c r="F9" s="1">
+        <f>I9*5</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>E9+F9</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
         <v>39</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>E10*5</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>D10+F10</f>
+      <c r="F10" s="1">
+        <f>I10*5</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>E10+F10</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
         <v>35</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>E11*5</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f>D11+F11</f>
+      <c r="F11" s="1">
+        <f>I11*5</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>E11+F11</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
         <v>31</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>E12*5</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>D12+F12</f>
+      <c r="F12" s="3">
+        <f>I12*5</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f>E12+F12</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
+      <c r="B13" s="1">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>31</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <f>E13*5</f>
+        <f>I13*5</f>
         <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <f>D13+F13</f>
+        <f>E13+F13</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
+      <c r="B14" s="1">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>29</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
-        <f>E14*5</f>
+        <f>I14*5</f>
         <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <f>D14+F14</f>
+        <f>E14+F14</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
+      <c r="B15" s="1">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
         <v>27</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
-        <f>E15*5</f>
+        <f>I15*5</f>
         <v>0</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15">
-        <f>D15+F15</f>
+        <f>E15+F15</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
+      <c r="B16" s="1">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
-        <f>E16*5</f>
+        <f>I16*5</f>
         <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <f>D16+F16</f>
+        <f>E16+F16</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
+      <c r="B17" s="1">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>25</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
-        <f>E17*5</f>
+        <f>I17*5</f>
         <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <f>D17+F17</f>
+        <f>E17+F17</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
+      <c r="B18" s="1">
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>23</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
-        <f>E18*5</f>
+        <f>I18*5</f>
         <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <f>D18+F18</f>
+        <f>E18+F18</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
+      <c r="B19" s="1">
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
         <v>21</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
-        <f>E19*5</f>
+        <f>I19*5</f>
         <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <f>D19+F19</f>
+        <f>E19+F19</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
+      <c r="B20" s="1">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
         <v>21</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
-        <f>E20*5</f>
+        <f>I20*5</f>
         <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <f>D20+F20</f>
+        <f>E20+F20</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21">
+      <c r="F21">
+        <f>I21*5</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>E21+F21</f>
         <v>18</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>E21*5</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f>D21+F21</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
+      <c r="B22" s="1">
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>17</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
-        <f>E22*5</f>
+        <f>I22*5</f>
         <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <f>D22+F22</f>
+        <f>E22+F22</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
+      <c r="B23" s="1">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>17</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
-        <f>E23*5</f>
+        <f>I23*5</f>
         <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <f>D23+F23</f>
+        <f>E23+F23</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
+      <c r="B24" s="1">
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
         <v>17</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
-        <f>E24*5</f>
+        <f>I24*5</f>
         <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <f>D24+F24</f>
+        <f>E24+F24</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>15</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
-        <f>E25*5</f>
+        <f>I25*5</f>
         <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <f>D25+F25</f>
+        <f>E25+F25</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="F26">
+        <f>I26*5</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>E26+F26</f>
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>E26*5</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>D26+F26</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
+      <c r="B27" s="1">
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
         <v>13</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
-        <f>E27*5</f>
+        <f>I27*5</f>
         <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <f>D27+F27</f>
+        <f>E27+F27</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
+      <c r="B28" s="1">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
         <v>7</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
-        <f>E28*5</f>
+        <f>I28*5</f>
         <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <f>D28+F28</f>
+        <f>E28+F28</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
+      <c r="B29" s="1">
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
         <v>5</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
-        <f>E29*5</f>
+        <f>I29*5</f>
         <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <f>D29+F29</f>
+        <f>E29+F29</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="B30" s="1">
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
-        <f>E30*5</f>
+        <f>I30*5</f>
         <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <f>D30+F30</f>
+        <f>E30+F30</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
-        <f>E31*5</f>
+        <f>I31*5</f>
         <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <f>D31+F31</f>
+        <f>E31+F31</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
-        <v>17</v>
+      <c r="B32" s="1">
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
         <v>-7</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <f>E32*5</f>
+        <f>I32*5</f>
         <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <f>D32+F32</f>
+        <f>E32+F32</f>
         <v>-7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1502,7 @@
       <sortCondition descending="1" ref="H1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:H32">
+  <sortState ref="A1:I32">
     <sortCondition descending="1" ref="H2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,24 +1510,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
